--- a/Code/Results/Cases/Case_0_103/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_103/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.04372591537597259</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.8822677054675978</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02609259249555329</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23.92356274387555</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002867355175747337</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4466257898113639</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.03888318053735418</v>
+      </c>
+      <c r="D3">
+        <v>0.8046911110230894</v>
+      </c>
+      <c r="E3">
+        <v>0.02450610787741603</v>
+      </c>
+      <c r="F3">
+        <v>23.00349518064331</v>
+      </c>
+      <c r="G3">
+        <v>0.00290833556500889</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.4369461069453138</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2.562605684679681</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.03599270047349989</v>
+      </c>
+      <c r="D4">
+        <v>0.7587008429848083</v>
+      </c>
+      <c r="E4">
+        <v>0.02354046171741864</v>
+      </c>
+      <c r="F4">
+        <v>22.47455865924672</v>
+      </c>
+      <c r="G4">
+        <v>0.002934370448932937</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.4315930922242899</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2.371325805375818</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.0348334952780931</v>
+      </c>
+      <c r="D5">
+        <v>0.7403349524608416</v>
+      </c>
+      <c r="E5">
+        <v>0.0231484755082203</v>
+      </c>
+      <c r="F5">
+        <v>22.26750522546297</v>
+      </c>
+      <c r="G5">
+        <v>0.002945206035812751</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.4295527671499428</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2.293303068605894</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.03464207856887924</v>
+      </c>
+      <c r="D6">
+        <v>0.7373069545410544</v>
+      </c>
+      <c r="E6">
+        <v>0.02308346166840458</v>
+      </c>
+      <c r="F6">
+        <v>22.23362166028636</v>
+      </c>
+      <c r="G6">
+        <v>0.00294701912365337</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.429222289015442</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2.2803432614038</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.03597699410508426</v>
+      </c>
+      <c r="D7">
+        <v>0.7584516809307047</v>
+      </c>
+      <c r="E7">
+        <v>0.02353516985501081</v>
+      </c>
+      <c r="F7">
+        <v>22.47173258151184</v>
+      </c>
+      <c r="G7">
+        <v>0.002934515657094313</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.4315650137938434</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2.370273851392596</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.04203755018851041</v>
+      </c>
+      <c r="D8">
+        <v>0.8551549757827956</v>
+      </c>
+      <c r="E8">
+        <v>0.02554343594635711</v>
+      </c>
+      <c r="F8">
+        <v>23.59850359927054</v>
+      </c>
+      <c r="G8">
+        <v>0.002881308259296363</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.4431610670965114</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2.766433886209882</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.05468943507594304</v>
+      </c>
+      <c r="D9">
+        <v>1.059688426065122</v>
+      </c>
+      <c r="E9">
+        <v>0.02957901817136133</v>
+      </c>
+      <c r="F9">
+        <v>26.12153665112874</v>
+      </c>
+      <c r="G9">
+        <v>0.00278356321099804</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.4709545895599376</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3.540180268007362</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.06462231669281948</v>
+      </c>
+      <c r="D10">
+        <v>1.221963628229673</v>
+      </c>
+      <c r="E10">
+        <v>0.03265056337364314</v>
+      </c>
+      <c r="F10">
+        <v>28.20991892049801</v>
+      </c>
+      <c r="G10">
+        <v>0.002715260821917059</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.4950341310756698</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4.10623028343673</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.06932321259763796</v>
+      </c>
+      <c r="D11">
+        <v>1.299146487612745</v>
+      </c>
+      <c r="E11">
+        <v>0.0340832095910244</v>
+      </c>
+      <c r="F11">
+        <v>29.22220057777588</v>
+      </c>
+      <c r="G11">
+        <v>0.002684821870523252</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.5069327173200406</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4.363110593465592</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.07113375073043926</v>
+      </c>
+      <c r="D12">
+        <v>1.328929703396113</v>
+      </c>
+      <c r="E12">
+        <v>0.03463197559599607</v>
+      </c>
+      <c r="F12">
+        <v>29.61556357675431</v>
+      </c>
+      <c r="G12">
+        <v>0.002673374153217261</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.5115886662155447</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4.460285735713398</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.07074239376409253</v>
+      </c>
+      <c r="D13">
+        <v>1.322489385490769</v>
+      </c>
+      <c r="E13">
+        <v>0.03451349061923281</v>
+      </c>
+      <c r="F13">
+        <v>29.53038079567568</v>
+      </c>
+      <c r="G13">
+        <v>0.002675836324709443</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.5105789939301815</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4.439361943450422</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.06947153121635097</v>
+      </c>
+      <c r="D14">
+        <v>1.301585185140141</v>
+      </c>
+      <c r="E14">
+        <v>0.0341282243247143</v>
+      </c>
+      <c r="F14">
+        <v>29.25435498997206</v>
+      </c>
+      <c r="G14">
+        <v>0.002683878553778396</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.5073126653470297</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4.371107314139238</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.06869718528839996</v>
+      </c>
+      <c r="D15">
+        <v>1.288855437808479</v>
+      </c>
+      <c r="E15">
+        <v>0.03389308930675128</v>
+      </c>
+      <c r="F15">
+        <v>29.08662244268692</v>
+      </c>
+      <c r="G15">
+        <v>0.00268881453713388</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.5053319661873843</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>4.329286057410116</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.06431911742215846</v>
+      </c>
+      <c r="D16">
+        <v>1.216993173173591</v>
+      </c>
+      <c r="E16">
+        <v>0.03255774478516926</v>
+      </c>
+      <c r="F16">
+        <v>28.14510601135464</v>
+      </c>
+      <c r="G16">
+        <v>0.002717261802484761</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.4942767253332079</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>4.089429168003846</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.06168283605882152</v>
+      </c>
+      <c r="D17">
+        <v>1.173817785464962</v>
+      </c>
+      <c r="E17">
+        <v>0.03174839935240215</v>
+      </c>
+      <c r="F17">
+        <v>27.58418894820409</v>
+      </c>
+      <c r="G17">
+        <v>0.002734867063833413</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.4877462901535239</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3.94211849063862</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.06018340253204713</v>
+      </c>
+      <c r="D18">
+        <v>1.149296153844773</v>
+      </c>
+      <c r="E18">
+        <v>0.03128613766349631</v>
+      </c>
+      <c r="F18">
+        <v>27.26735261594763</v>
+      </c>
+      <c r="G18">
+        <v>0.002745053447034726</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.4840781102868732</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3.857331695637072</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.05967850145266596</v>
+      </c>
+      <c r="D19">
+        <v>1.141045039938774</v>
+      </c>
+      <c r="E19">
+        <v>0.03113014933282443</v>
+      </c>
+      <c r="F19">
+        <v>27.16104078324656</v>
+      </c>
+      <c r="G19">
+        <v>0.002748513081875599</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.4828508261946922</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3.828614786363971</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.06196169650715433</v>
+      </c>
+      <c r="D20">
+        <v>1.178381125792271</v>
+      </c>
+      <c r="E20">
+        <v>0.0318342109863643</v>
+      </c>
+      <c r="F20">
+        <v>27.64329308208335</v>
+      </c>
+      <c r="G20">
+        <v>0.002732986795432605</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.4884322651639366</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3.95780600327754</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.0698439528805892</v>
+      </c>
+      <c r="D21">
+        <v>1.307709549867582</v>
+      </c>
+      <c r="E21">
+        <v>0.03424120657317786</v>
+      </c>
+      <c r="F21">
+        <v>29.3351488134191</v>
+      </c>
+      <c r="G21">
+        <v>0.002681514319810705</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.5082678643639724</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4.391158149571083</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.07517508382045435</v>
+      </c>
+      <c r="D22">
+        <v>1.395513200026755</v>
+      </c>
+      <c r="E22">
+        <v>0.03585142960443832</v>
+      </c>
+      <c r="F22">
+        <v>30.49997014507198</v>
+      </c>
+      <c r="G22">
+        <v>0.002648326974387394</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.5221152556574964</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>4.67379181795809</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.07231179030638657</v>
+      </c>
+      <c r="D23">
+        <v>1.348324174755192</v>
+      </c>
+      <c r="E23">
+        <v>0.03498820001243175</v>
+      </c>
+      <c r="F23">
+        <v>29.8724798320917</v>
+      </c>
+      <c r="G23">
+        <v>0.002666002630617439</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.5146385160317095</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4.523002190001307</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.06183557355032576</v>
+      </c>
+      <c r="D24">
+        <v>1.17631710904692</v>
+      </c>
+      <c r="E24">
+        <v>0.03179540615810694</v>
+      </c>
+      <c r="F24">
+        <v>27.61655460825159</v>
+      </c>
+      <c r="G24">
+        <v>0.002733836661497686</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.4881218682592987</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>3.950713976768498</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.05116825127188918</v>
+      </c>
+      <c r="D25">
+        <v>1.002479985388504</v>
+      </c>
+      <c r="E25">
+        <v>0.02847230604321638</v>
+      </c>
+      <c r="F25">
+        <v>25.40122917321128</v>
+      </c>
+      <c r="G25">
+        <v>0.002809349348349082</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.462838927855131</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>3.331249627311138</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
